--- a/Templates/metabolic rate/25_template_metabolic_rate.xlsx
+++ b/Templates/metabolic rate/25_template_metabolic_rate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\doc\templates for data submission\metabolic rate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\GitHub\ShareTrait\Templates\metabolic rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5024E3-9874-457B-A315-B49A1191C003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5BB61B-88AC-4F0F-B840-9291FF5EB435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFF950A0-F4A1-4AB4-B96B-1421EDA891B8}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="164">
   <si>
     <t>Column_name</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>Relevant notes about the timing of collection such as day, month, year, range of dates, etc</t>
+  </si>
+  <si>
+    <t>date_of_collection_final</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1049,7 @@
       <pane xSplit="15" ySplit="19" topLeftCell="P20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,7 +1107,7 @@
         <v>76</v>
       </c>
       <c r="R1" s="33" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="S1" s="33" t="s">
         <v>25</v>
